--- a/orders/prep-room/order-tracking.xlsx
+++ b/orders/prep-room/order-tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a8a7dff0b441a3a2/Documents/GitHub/flora-hardware/orders/prep-room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="11_F25DC773A252ABDACC10489A291A57685BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B563812A-C119-44C9-A898-5B20D13CF1DD}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_F25DC773A252ABDACC10489A291A57685BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC23A326-09FB-46F1-A500-AFED99506934}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Wave LoRa Modules x 4</t>
-  </si>
-  <si>
     <t>Date Submitted</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>Wave LoRa Modules x 6</t>
   </si>
 </sst>
 </file>
@@ -68,7 +68,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -102,7 +102,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -112,13 +112,13 @@
       <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -138,11 +138,11 @@
   <autoFilter ref="B3:G11" xr:uid="{F239E3FA-E447-4B99-A348-1DC7CF1A0F20}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{6AAD179A-0F64-4A68-A6DE-B5FC327D7F8D}" name="Order #"/>
-    <tableColumn id="2" xr3:uid="{3541061D-16F5-4BCE-9ABF-7488DAAB4A49}" name="Cost" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{3541061D-16F5-4BCE-9ABF-7488DAAB4A49}" name="Cost" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{2927EC20-DA80-4FFE-8E26-F88581B56D2A}" name="Description"/>
-    <tableColumn id="4" xr3:uid="{BA13A7D8-4DCF-4CBA-B541-CFA1DA51DFC5}" name="Date Submitted" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{E6D40592-E467-4561-9221-00BE163E209D}" name="Revision Date (?)" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{512FF338-EE33-45EF-9E5B-97CCB36C4767}" name="Date Approved" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{BA13A7D8-4DCF-4CBA-B541-CFA1DA51DFC5}" name="Date Submitted" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{E6D40592-E467-4561-9221-00BE163E209D}" name="Revision Date (?)" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{512FF338-EE33-45EF-9E5B-97CCB36C4767}" name="Date Approved" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -414,7 +414,7 @@
   <dimension ref="B3:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -437,13 +437,13 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
         <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
@@ -451,16 +451,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>41.56</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E4" s="1">
         <v>45551</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -468,7 +468,7 @@
       <c r="C5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -476,7 +476,7 @@
       <c r="C6" s="2"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -484,7 +484,7 @@
       <c r="C7" s="2"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -492,7 +492,7 @@
       <c r="C8" s="2"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -500,7 +500,7 @@
       <c r="C9" s="2"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -508,7 +508,7 @@
       <c r="C10" s="2"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -516,7 +516,7 @@
       <c r="C11" s="2"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G11" s="1"/>
     </row>
